--- a/Data/aa_id.xlsx
+++ b/Data/aa_id.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E93403-1B24-BC45-A3F8-5450D8AFA212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F277DC9-DB86-094F-9D91-3B0915F66186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="27380" windowHeight="17040" xr2:uid="{D766075A-6469-B746-8E58-61ED165AD801}"/>
   </bookViews>
@@ -54,298 +54,298 @@
     <t>Ala-tRNA(Ala)[c]</t>
   </si>
   <si>
-    <t>s_0404</t>
-  </si>
-  <si>
     <t>tRNA(Ala)[c]</t>
   </si>
   <si>
-    <t>s_1582</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
     <t>Arg-tRNA(Arg)[c]</t>
   </si>
   <si>
-    <t>s_0428</t>
-  </si>
-  <si>
     <t>tRNA(Arg)[c]</t>
   </si>
   <si>
-    <t>s_1583</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>Asn-tRNA(Asn)[c]</t>
   </si>
   <si>
-    <t>s_0430</t>
-  </si>
-  <si>
     <t>tRNA(Asn)[c]</t>
   </si>
   <si>
-    <t>s_1585</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>Asp-tRNA(Asp)[c]</t>
   </si>
   <si>
-    <t>s_0432</t>
-  </si>
-  <si>
     <t>tRNA(Asp)[c]</t>
   </si>
   <si>
-    <t>s_1587</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>Cys-tRNA(Cys)[c]</t>
   </si>
   <si>
-    <t>s_0542</t>
-  </si>
-  <si>
     <t>tRNA(Cys)[c]</t>
   </si>
   <si>
-    <t>s_1589</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
     <t>Gln-tRNA(Gln)[c]</t>
   </si>
   <si>
-    <t>s_0747</t>
-  </si>
-  <si>
     <t>tRNA(Gln)[c]</t>
   </si>
   <si>
-    <t>s_1590</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>Glu-tRNA(Glu)[c]</t>
   </si>
   <si>
-    <t>s_0748</t>
-  </si>
-  <si>
     <t>tRNA(Glu)[c]</t>
   </si>
   <si>
-    <t>s_1591</t>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
     <t>Gly-tRNA(Gly)[c]</t>
   </si>
   <si>
-    <t>s_0757</t>
-  </si>
-  <si>
     <t>tRNA(Gly)[c]</t>
   </si>
   <si>
-    <t>s_1593</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
     <t>His-tRNA(His)[c]</t>
   </si>
   <si>
-    <t>s_0832</t>
-  </si>
-  <si>
     <t>tRNA(His)[c]</t>
   </si>
   <si>
-    <t>s_1594</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
     <t>Ile-tRNA(Ile)[c]</t>
   </si>
   <si>
-    <t>s_0847</t>
-  </si>
-  <si>
     <t>tRNA(Ile)[c]</t>
   </si>
   <si>
-    <t>s_1596</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
     <t>Leu-tRNA(Leu)[c]</t>
   </si>
   <si>
-    <t>s_1077</t>
-  </si>
-  <si>
     <t>tRNA(Leu)[c]</t>
   </si>
   <si>
-    <t>s_1598</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
     <t>Lys-tRNA(Lys)[c]</t>
   </si>
   <si>
-    <t>s_1099</t>
-  </si>
-  <si>
     <t>tRNA(Lys)[c]</t>
   </si>
   <si>
-    <t>s_1600</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>Met-tRNA(Met)[c]</t>
   </si>
   <si>
-    <t>s_1148</t>
-  </si>
-  <si>
     <t>tRNA(Met)[c]</t>
   </si>
   <si>
-    <t>s_1602</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
     <t>Phe-tRNA(Phe)[c]</t>
   </si>
   <si>
-    <t>s_1314</t>
-  </si>
-  <si>
     <t>tRNA(Phe)[c]</t>
   </si>
   <si>
-    <t>s_1604</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
     <t>Pro-tRNA(Pro)[c]</t>
   </si>
   <si>
-    <t>s_1379</t>
-  </si>
-  <si>
     <t>tRNA(Pro)[c]</t>
   </si>
   <si>
-    <t>s_1606</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
     <t>Ser-tRNA(Ser)[c]</t>
   </si>
   <si>
-    <t>s_1428</t>
-  </si>
-  <si>
     <t>tRNA(Ser)[c]</t>
   </si>
   <si>
-    <t>s_1607</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
     <t>Thr-tRNA(Thr)[c]</t>
   </si>
   <si>
-    <t>s_1491</t>
-  </si>
-  <si>
     <t>tRNA(Thr)[c]</t>
   </si>
   <si>
-    <t>s_1608</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
     <t>Trp-tRNA(Trp)[c]</t>
   </si>
   <si>
-    <t>s_1527</t>
-  </si>
-  <si>
     <t>tRNA(Trp)[c]</t>
   </si>
   <si>
-    <t>s_1610</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>Tyr-tRNA(Tyr)[c]</t>
   </si>
   <si>
-    <t>s_1533</t>
-  </si>
-  <si>
     <t>tRNA(Tyr)[c]</t>
   </si>
   <si>
-    <t>s_1612</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
     <t>Val-tRNA(Val)[c]</t>
   </si>
   <si>
-    <t>s_1561</t>
-  </si>
-  <si>
     <t>tRNA(Val)[c]</t>
   </si>
   <si>
-    <t>s_1614</t>
+    <t>s_0404[c]</t>
+  </si>
+  <si>
+    <t>s_0428[c]</t>
+  </si>
+  <si>
+    <t>s_0430[c]</t>
+  </si>
+  <si>
+    <t>s_0432[c]</t>
+  </si>
+  <si>
+    <t>s_0542[c]</t>
+  </si>
+  <si>
+    <t>s_0747[c]</t>
+  </si>
+  <si>
+    <t>s_0748[c]</t>
+  </si>
+  <si>
+    <t>s_0757[c]</t>
+  </si>
+  <si>
+    <t>s_0832[c]</t>
+  </si>
+  <si>
+    <t>s_0847[c]</t>
+  </si>
+  <si>
+    <t>s_1077[c]</t>
+  </si>
+  <si>
+    <t>s_1099[c]</t>
+  </si>
+  <si>
+    <t>s_1148[c]</t>
+  </si>
+  <si>
+    <t>s_1314[c]</t>
+  </si>
+  <si>
+    <t>s_1379[c]</t>
+  </si>
+  <si>
+    <t>s_1428[c]</t>
+  </si>
+  <si>
+    <t>s_1491[c]</t>
+  </si>
+  <si>
+    <t>s_1527[c]</t>
+  </si>
+  <si>
+    <t>s_1533[c]</t>
+  </si>
+  <si>
+    <t>s_1561[c]</t>
+  </si>
+  <si>
+    <t>s_1582[c]</t>
+  </si>
+  <si>
+    <t>s_1583[c]</t>
+  </si>
+  <si>
+    <t>s_1585[c]</t>
+  </si>
+  <si>
+    <t>s_1587[c]</t>
+  </si>
+  <si>
+    <t>s_1589[c]</t>
+  </si>
+  <si>
+    <t>s_1590[c]</t>
+  </si>
+  <si>
+    <t>s_1591[c]</t>
+  </si>
+  <si>
+    <t>s_1593[c]</t>
+  </si>
+  <si>
+    <t>s_1594[c]</t>
+  </si>
+  <si>
+    <t>s_1596[c]</t>
+  </si>
+  <si>
+    <t>s_1598[c]</t>
+  </si>
+  <si>
+    <t>s_1600[c]</t>
+  </si>
+  <si>
+    <t>s_1602[c]</t>
+  </si>
+  <si>
+    <t>s_1604[c]</t>
+  </si>
+  <si>
+    <t>s_1606[c]</t>
+  </si>
+  <si>
+    <t>s_1607[c]</t>
+  </si>
+  <si>
+    <t>s_1608[c]</t>
+  </si>
+  <si>
+    <t>s_1610[c]</t>
+  </si>
+  <si>
+    <t>s_1612[c]</t>
+  </si>
+  <si>
+    <t>s_1614[c]</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,333 +734,333 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
         <v>80</v>
       </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>82</v>
-      </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
         <v>104</v>
